--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,24 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -67,247 +73,232 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>nicely</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>bread</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>nicely</t>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>always</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>far</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>ice</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
     <t>wish</t>
   </si>
   <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>buy</t>
   </si>
   <si>
     <t>used</t>
@@ -674,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -743,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -761,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -785,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -793,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.525</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -811,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -835,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -843,37 +834,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2435897435897436</v>
+        <v>0.425</v>
       </c>
       <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>59</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.848297213622291</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>548</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>548</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -885,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -893,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2248062015503876</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -911,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8436532507739938</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>545</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>545</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -935,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -943,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.202020202020202</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -961,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>0.7931034482758621</v>
@@ -993,115 +984,163 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1297297297297297</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>77</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.2207792207792208</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>0.06</v>
+      </c>
+      <c r="F9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L9">
+        <v>168</v>
+      </c>
+      <c r="M9">
+        <v>168</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.0972972972972973</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>167</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>161</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L8">
-        <v>165</v>
-      </c>
-      <c r="M8">
-        <v>165</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="J9" s="1" t="s">
+      <c r="K10">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L10">
+        <v>56</v>
+      </c>
+      <c r="M10">
+        <v>56</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>21</v>
-      </c>
-      <c r="K9">
-        <v>0.7012987012987013</v>
-      </c>
-      <c r="L9">
-        <v>54</v>
-      </c>
-      <c r="M9">
-        <v>54</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10">
-        <v>0.676056338028169</v>
-      </c>
-      <c r="L10">
-        <v>48</v>
-      </c>
-      <c r="M10">
-        <v>48</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.6739130434782609</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1118,16 +1157,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,47 +1178,47 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="L13">
+        <v>46</v>
+      </c>
+      <c r="M13">
+        <v>46</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>25</v>
-      </c>
-      <c r="K13">
-        <v>0.6406779661016949</v>
-      </c>
-      <c r="L13">
-        <v>189</v>
-      </c>
-      <c r="M13">
-        <v>189</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6342857142857142</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6301369863013698</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1217,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6176470588235294</v>
+        <v>0.6107544141252006</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>761</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>761</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1243,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6163723916532905</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L17">
-        <v>768</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>768</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1269,21 +1308,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>478</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.59375</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1295,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.5909090909090909</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1321,15 +1360,15 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.5857142857142857</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L20">
         <v>41</v>
@@ -1347,15 +1386,15 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.5138888888888888</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L21">
         <v>37</v>
@@ -1373,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5128205128205128</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L22">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1399,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5087719298245614</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1425,21 +1464,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M24">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1451,21 +1490,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.4923076923076923</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1477,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.4850299401197605</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L26">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="M26">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1503,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.4698795180722892</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1529,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4583333333333333</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1555,21 +1594,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4444444444444444</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1581,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4285714285714285</v>
+        <v>0.46875</v>
       </c>
       <c r="L30">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1607,21 +1646,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4096385542168675</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L31">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1633,21 +1672,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.392156862745098</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1659,21 +1698,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.39</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1685,21 +1724,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.3846153846153846</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1711,12 +1750,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K35">
         <v>0.3815789473684211</v>
@@ -1742,16 +1781,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.3533834586466165</v>
+        <v>0.38</v>
       </c>
       <c r="L36">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1763,21 +1802,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3442622950819672</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1789,21 +1828,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3382352941176471</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L38">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M38">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1815,21 +1854,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3061224489795918</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1841,15 +1880,15 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.3035714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L40">
         <v>17</v>
@@ -1867,21 +1906,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.2972972972972973</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="L41">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1893,21 +1932,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>78</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.2903225806451613</v>
+        <v>0.2986301369863014</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1919,21 +1958,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.2840466926070039</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="L43">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1945,21 +1984,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>184</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.2821917808219178</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L44">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="M44">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1971,21 +2010,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>524</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K45">
-        <v>0.2763157894736842</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1997,21 +2036,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>0.2716049382716049</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2023,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K47">
-        <v>0.25</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2049,21 +2088,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>81</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K48">
-        <v>0.25</v>
+        <v>0.2446043165467626</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2075,21 +2114,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K49">
-        <v>0.2488038277511962</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L49">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="M49">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2101,21 +2140,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>157</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K50">
-        <v>0.2335844994617869</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L50">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2127,21 +2166,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>712</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K51">
-        <v>0.2086330935251799</v>
+        <v>0.2217438105489774</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2153,21 +2192,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>110</v>
+        <v>723</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K52">
-        <v>0.198019801980198</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2179,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K53">
-        <v>0.1904761904761905</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2205,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>68</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K54">
-        <v>0.1814569536423841</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L54">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="M54">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2231,21 +2270,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>618</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K55">
-        <v>0.1788079470198675</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="L55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2257,21 +2296,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K56">
-        <v>0.1764705882352941</v>
+        <v>0.1721311475409836</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2283,21 +2322,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K57">
-        <v>0.1724137931034483</v>
+        <v>0.1695364238410596</v>
       </c>
       <c r="L57">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="M57">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2309,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>264</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K58">
-        <v>0.1610738255033557</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2335,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>125</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K59">
-        <v>0.159846547314578</v>
+        <v>0.1572890025575447</v>
       </c>
       <c r="L59">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M59">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2361,21 +2400,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K60">
-        <v>0.1523809523809524</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2387,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K61">
-        <v>0.1441441441441441</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2413,21 +2452,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>95</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K62">
-        <v>0.1376146788990826</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2439,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>94</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K63">
-        <v>0.1367521367521368</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2465,41 +2504,41 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>101</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K64">
-        <v>0.1339285714285714</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M64">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N64">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>97</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K65">
-        <v>0.1307692307692308</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="L65">
         <v>17</v>
@@ -2517,21 +2556,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>113</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K66">
-        <v>0.1167883211678832</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="L66">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M66">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2543,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>363</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K67">
-        <v>0.1129943502824859</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="L67">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2569,21 +2608,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K68">
-        <v>0.1107011070110701</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="L68">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M68">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2595,47 +2634,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>241</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K69">
-        <v>0.1065292096219931</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="L69">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M69">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>260</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K70">
-        <v>0.09852216748768473</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2647,21 +2686,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>183</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K71">
-        <v>0.0975609756097561</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="L71">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M71">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2673,41 +2712,41 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K72">
-        <v>0.0975609756097561</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L72">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M72">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>333</v>
+        <v>417</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K73">
-        <v>0.09696969696969697</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="L73">
         <v>16</v>
@@ -2725,21 +2764,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>149</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K74">
-        <v>0.09615384615384616</v>
+        <v>0.07749077490774908</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2751,21 +2790,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>141</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K75">
-        <v>0.09243697478991597</v>
+        <v>0.07159904534606205</v>
       </c>
       <c r="L75">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M75">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2777,21 +2816,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>216</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K76">
-        <v>0.08518518518518518</v>
+        <v>0.06830601092896176</v>
       </c>
       <c r="L76">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M76">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2803,47 +2842,47 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>247</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K77">
-        <v>0.08181818181818182</v>
+        <v>0.06169296987087518</v>
       </c>
       <c r="L77">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M77">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>404</v>
+        <v>654</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K78">
-        <v>0.081145584725537</v>
+        <v>0.04822335025380711</v>
       </c>
       <c r="L78">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M78">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2855,21 +2894,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K79">
-        <v>0.07675438596491228</v>
+        <v>0.04664179104477612</v>
       </c>
       <c r="L79">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M79">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2881,21 +2920,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>421</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K80">
-        <v>0.06284153005464481</v>
+        <v>0.04059040590405904</v>
       </c>
       <c r="L80">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M80">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2907,189 +2946,59 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>343</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K81">
-        <v>0.05738880918220947</v>
+        <v>0.03262955854126679</v>
       </c>
       <c r="L81">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M81">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N81">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O81">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>657</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K82">
-        <v>0.05228758169934641</v>
+        <v>0.02592912705272256</v>
       </c>
       <c r="L82">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M82">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N82">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K83">
-        <v>0.04797047970479705</v>
-      </c>
-      <c r="L83">
-        <v>26</v>
-      </c>
-      <c r="M83">
-        <v>26</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K84">
-        <v>0.0467032967032967</v>
-      </c>
-      <c r="L84">
-        <v>17</v>
-      </c>
-      <c r="M84">
-        <v>18</v>
-      </c>
-      <c r="N84">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O84">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K85">
-        <v>0.04060913705583756</v>
-      </c>
-      <c r="L85">
-        <v>16</v>
-      </c>
-      <c r="M85">
-        <v>16</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K86">
-        <v>0.02873563218390805</v>
-      </c>
-      <c r="L86">
-        <v>15</v>
-      </c>
-      <c r="M86">
-        <v>15</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K87">
-        <v>0.02683982683982684</v>
-      </c>
-      <c r="L87">
-        <v>31</v>
-      </c>
-      <c r="M87">
-        <v>33</v>
-      </c>
-      <c r="N87">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O87">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
